--- a/pkl/corresponding id.xlsx
+++ b/pkl/corresponding id.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\CHEER\pkl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09B72B-C00E-4139-91F9-ED5E1F31E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF1B97-5C92-4F03-A3DE-0D1035AC2A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Bunyavirales</t>
   </si>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>Tymovirales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,9 +387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,6 +396,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -689,913 +693,1059 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="C2" s="3">
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="C3" s="3">
+      <c r="E2" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="C4" s="3">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="C5" s="3">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="C6" s="3">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E13" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E19" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E24" s="7">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E29" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E32" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="5">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="5">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="4">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="5">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="4">
         <v>5</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E38" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="5">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3">
+      <c r="E45" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="2">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="5">
+      <c r="E48" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
       <c r="D50"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="5">
+      <c r="E51" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="4">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="5">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="5">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="5">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="4">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="5">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="E57" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="5">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="4">
         <v>3</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="5">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="E62" s="7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="5">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="E65" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="5">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="4">
         <v>3</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="5">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="E69" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="4">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="5">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="4">
         <v>3</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="5">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="4">
         <v>4</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="5">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="4">
         <v>5</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="5">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4">
         <v>6</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="5">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="E76" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="5">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="E79" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="4">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="5">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="4">
         <v>3</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="5">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="4">
         <v>4</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="5">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="4">
         <v>5</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="5">
-        <v>2</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="E85" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="4">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="5">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="4">
         <v>3</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="5">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="4">
         <v>4</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="5">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="4">
         <v>5</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="5">
-        <v>2</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="E91" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="4">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="5">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="5">
-        <v>2</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E94" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="4">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="5">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="4">
         <v>3</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="5">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="4">
         <v>4</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="5">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="4">
         <v>5</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="5">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="4">
         <v>6</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="5">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="4">
         <v>7</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="5">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="5">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="E102" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="4">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E103" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B94:B100"/>
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="A44:A103"/>
@@ -1612,12 +1762,6 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="A12:A40"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
